--- a/Code/Results/Cases/Case_0_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013112554880259</v>
+        <v>1.045152066849036</v>
       </c>
       <c r="D2">
-        <v>1.026165108384829</v>
+        <v>1.052526514471977</v>
       </c>
       <c r="E2">
-        <v>1.026070182185193</v>
+        <v>1.05259724043079</v>
       </c>
       <c r="F2">
-        <v>1.032977370097259</v>
+        <v>1.062595122994376</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05266756154219</v>
+        <v>1.037586549292694</v>
       </c>
       <c r="J2">
-        <v>1.034908022121544</v>
+        <v>1.050213330853448</v>
       </c>
       <c r="K2">
-        <v>1.037271570355214</v>
+        <v>1.055275002408555</v>
       </c>
       <c r="L2">
-        <v>1.037177883610809</v>
+        <v>1.055345532738893</v>
       </c>
       <c r="M2">
-        <v>1.043995627816465</v>
+        <v>1.065316044784235</v>
       </c>
       <c r="N2">
-        <v>1.036377710218578</v>
+        <v>1.051704754244413</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017900569308338</v>
+        <v>1.046153867393417</v>
       </c>
       <c r="D3">
-        <v>1.030232241289127</v>
+        <v>1.053427385776767</v>
       </c>
       <c r="E3">
-        <v>1.030100357234361</v>
+        <v>1.053493831880952</v>
       </c>
       <c r="F3">
-        <v>1.037409370126521</v>
+        <v>1.063590751221138</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053891763469716</v>
+        <v>1.037737667355049</v>
       </c>
       <c r="J3">
-        <v>1.037914862970034</v>
+        <v>1.050862418683493</v>
       </c>
       <c r="K3">
-        <v>1.040492373430266</v>
+        <v>1.055988511132466</v>
       </c>
       <c r="L3">
-        <v>1.0403620565311</v>
+        <v>1.056054786742762</v>
       </c>
       <c r="M3">
-        <v>1.047584961033776</v>
+        <v>1.066126065192735</v>
       </c>
       <c r="N3">
-        <v>1.03938882112595</v>
+        <v>1.052354763853628</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020930875129598</v>
+        <v>1.046802018643817</v>
       </c>
       <c r="D4">
-        <v>1.0328116945682</v>
+        <v>1.054010579883392</v>
       </c>
       <c r="E4">
-        <v>1.03265715069662</v>
+        <v>1.054074339351981</v>
       </c>
       <c r="F4">
-        <v>1.040221679444174</v>
+        <v>1.064235513230369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054649096014923</v>
+        <v>1.037833253474823</v>
       </c>
       <c r="J4">
-        <v>1.039813909252651</v>
+        <v>1.051281733084722</v>
       </c>
       <c r="K4">
-        <v>1.042529605128301</v>
+        <v>1.056449834989849</v>
       </c>
       <c r="L4">
-        <v>1.04237678371643</v>
+        <v>1.056513439100409</v>
       </c>
       <c r="M4">
-        <v>1.04985774011811</v>
+        <v>1.066650109526314</v>
       </c>
       <c r="N4">
-        <v>1.041290564272113</v>
+        <v>1.052774673729403</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022189156603658</v>
+        <v>1.047074481523156</v>
       </c>
       <c r="D5">
-        <v>1.033884018504671</v>
+        <v>1.054255818328413</v>
       </c>
       <c r="E5">
-        <v>1.033720240467204</v>
+        <v>1.054318468131277</v>
       </c>
       <c r="F5">
-        <v>1.0413911617815</v>
+        <v>1.064506695604809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054959313021266</v>
+        <v>1.037872911125407</v>
       </c>
       <c r="J5">
-        <v>1.040601462540613</v>
+        <v>1.051457847143459</v>
       </c>
       <c r="K5">
-        <v>1.043375202611437</v>
+        <v>1.05664368754388</v>
       </c>
       <c r="L5">
-        <v>1.043213200021692</v>
+        <v>1.056706188094144</v>
       </c>
       <c r="M5">
-        <v>1.050801698173164</v>
+        <v>1.066870394579837</v>
       </c>
       <c r="N5">
-        <v>1.042079235976077</v>
+        <v>1.052951037890303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022399525817679</v>
+        <v>1.047120228054956</v>
       </c>
       <c r="D6">
-        <v>1.034063370269359</v>
+        <v>1.054296998644443</v>
       </c>
       <c r="E6">
-        <v>1.033898058667682</v>
+        <v>1.054359463290202</v>
       </c>
       <c r="F6">
-        <v>1.041586784958202</v>
+        <v>1.064552235585521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055010925677731</v>
+        <v>1.03787953890982</v>
       </c>
       <c r="J6">
-        <v>1.040733072259495</v>
+        <v>1.051487407727558</v>
       </c>
       <c r="K6">
-        <v>1.043516555729115</v>
+        <v>1.056676231055626</v>
       </c>
       <c r="L6">
-        <v>1.043353027786383</v>
+        <v>1.056738547459162</v>
       </c>
       <c r="M6">
-        <v>1.050959528528304</v>
+        <v>1.06690738002345</v>
       </c>
       <c r="N6">
-        <v>1.042211032595855</v>
+        <v>1.052980640453822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02094774912364</v>
+        <v>1.046805659385114</v>
       </c>
       <c r="D7">
-        <v>1.032826069916793</v>
+        <v>1.05401385652273</v>
       </c>
       <c r="E7">
-        <v>1.032671401520995</v>
+        <v>1.054077601086135</v>
       </c>
       <c r="F7">
-        <v>1.04023735586084</v>
+        <v>1.064239136294907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054653273019462</v>
+        <v>1.03783378545297</v>
       </c>
       <c r="J7">
-        <v>1.039824474592571</v>
+        <v>1.051284086981575</v>
       </c>
       <c r="K7">
-        <v>1.042540946231983</v>
+        <v>1.056452425604014</v>
       </c>
       <c r="L7">
-        <v>1.042388001050633</v>
+        <v>1.056516014891967</v>
       </c>
       <c r="M7">
-        <v>1.049870398083252</v>
+        <v>1.066653053078238</v>
       </c>
       <c r="N7">
-        <v>1.041301144616027</v>
+        <v>1.052777030969059</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014745100943949</v>
+        <v>1.045490646388903</v>
       </c>
       <c r="D8">
-        <v>1.0275507014188</v>
+        <v>1.052830911599123</v>
       </c>
       <c r="E8">
-        <v>1.027443020260176</v>
+        <v>1.052900174029935</v>
       </c>
       <c r="F8">
-        <v>1.034486967207386</v>
+        <v>1.062931491116278</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053088597503191</v>
+        <v>1.037638074912416</v>
       </c>
       <c r="J8">
-        <v>1.035934057062578</v>
+        <v>1.050432835267461</v>
       </c>
       <c r="K8">
-        <v>1.038369977704208</v>
+        <v>1.055516210879794</v>
       </c>
       <c r="L8">
-        <v>1.038263659296365</v>
+        <v>1.055585286417432</v>
       </c>
       <c r="M8">
-        <v>1.045219206859024</v>
+        <v>1.065589813691777</v>
       </c>
       <c r="N8">
-        <v>1.037405202246904</v>
+        <v>1.051924570379871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003267465291784</v>
+        <v>1.043172832748289</v>
       </c>
       <c r="D9">
-        <v>1.017834048691434</v>
+        <v>1.050748525152882</v>
       </c>
       <c r="E9">
-        <v>1.017819171867177</v>
+        <v>1.050828144601189</v>
       </c>
       <c r="F9">
-        <v>1.023906533106368</v>
+        <v>1.060631310371556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050056805156711</v>
+        <v>1.037276408979596</v>
       </c>
       <c r="J9">
-        <v>1.028705366219275</v>
+        <v>1.048927580454169</v>
       </c>
       <c r="K9">
-        <v>1.03064425882468</v>
+        <v>1.053863730217319</v>
       </c>
       <c r="L9">
-        <v>1.030629612684696</v>
+        <v>1.053943097872803</v>
       </c>
       <c r="M9">
-        <v>1.036623295553441</v>
+        <v>1.063715577137104</v>
       </c>
       <c r="N9">
-        <v>1.030166245833461</v>
+        <v>1.050417177932089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9952053950088066</v>
+        <v>1.041627256214592</v>
       </c>
       <c r="D10">
-        <v>1.011042638401641</v>
+        <v>1.04936174681768</v>
       </c>
       <c r="E10">
-        <v>1.011096963599878</v>
+        <v>1.049448697607285</v>
       </c>
       <c r="F10">
-        <v>1.016518399202438</v>
+        <v>1.059100641543621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047838863873146</v>
+        <v>1.037024043230302</v>
       </c>
       <c r="J10">
-        <v>1.023610541328121</v>
+        <v>1.047920599066028</v>
       </c>
       <c r="K10">
-        <v>1.025215336427886</v>
+        <v>1.052760275028787</v>
       </c>
       <c r="L10">
-        <v>1.025268708402216</v>
+        <v>1.052846923833317</v>
       </c>
       <c r="M10">
-        <v>1.030595679071629</v>
+        <v>1.062465684991091</v>
       </c>
       <c r="N10">
-        <v>1.025064185706577</v>
+        <v>1.049408766514874</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9916068423332359</v>
+        <v>1.040957922959934</v>
       </c>
       <c r="D11">
-        <v>1.008020012569314</v>
+        <v>1.048761618959317</v>
       </c>
       <c r="E11">
-        <v>1.008106191561634</v>
+        <v>1.048851845633078</v>
       </c>
       <c r="F11">
-        <v>1.0132317319381</v>
+        <v>1.058438516951805</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046828840418287</v>
+        <v>1.036912104430586</v>
       </c>
       <c r="J11">
-        <v>1.02133300350543</v>
+        <v>1.047483748933222</v>
       </c>
       <c r="K11">
-        <v>1.022792251659433</v>
+        <v>1.052282048969754</v>
       </c>
       <c r="L11">
-        <v>1.022876839152749</v>
+        <v>1.052371950119412</v>
       </c>
       <c r="M11">
-        <v>1.027908357934898</v>
+        <v>1.061924382910862</v>
       </c>
       <c r="N11">
-        <v>1.022783413518941</v>
+        <v>1.048971296004773</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9902530583659773</v>
+        <v>1.0407092898445</v>
       </c>
       <c r="D12">
-        <v>1.006884278919861</v>
+        <v>1.048538759147472</v>
       </c>
       <c r="E12">
-        <v>1.006982587584282</v>
+        <v>1.048630217873804</v>
       </c>
       <c r="F12">
-        <v>1.011997006763129</v>
+        <v>1.058192675161426</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046445939438504</v>
+        <v>1.036870125900114</v>
       </c>
       <c r="J12">
-        <v>1.020475732378733</v>
+        <v>1.047321360705711</v>
       </c>
       <c r="K12">
-        <v>1.021880764909494</v>
+        <v>1.052104351707082</v>
       </c>
       <c r="L12">
-        <v>1.021977223862231</v>
+        <v>1.052195475880989</v>
       </c>
       <c r="M12">
-        <v>1.026897916680915</v>
+        <v>1.06172330635887</v>
       </c>
       <c r="N12">
-        <v>1.021924924968914</v>
+        <v>1.048808677167352</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9905442404893883</v>
+        <v>1.040762623072028</v>
       </c>
       <c r="D13">
-        <v>1.007128497392559</v>
+        <v>1.048586560858335</v>
       </c>
       <c r="E13">
-        <v>1.007224190489971</v>
+        <v>1.048677754615181</v>
       </c>
       <c r="F13">
-        <v>1.012262501746987</v>
+        <v>1.058245404486812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046528427599171</v>
+        <v>1.036879148505411</v>
       </c>
       <c r="J13">
-        <v>1.02066014036631</v>
+        <v>1.047356199071151</v>
       </c>
       <c r="K13">
-        <v>1.022076809603199</v>
+        <v>1.052142471204448</v>
       </c>
       <c r="L13">
-        <v>1.022170709371064</v>
+        <v>1.052233332358585</v>
       </c>
       <c r="M13">
-        <v>1.027115224813146</v>
+        <v>1.061766438531826</v>
       </c>
       <c r="N13">
-        <v>1.022109594836984</v>
+        <v>1.048843565007267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.99149529316161</v>
+        <v>1.040937371131121</v>
       </c>
       <c r="D14">
-        <v>1.007926401760059</v>
+        <v>1.04874319618313</v>
       </c>
       <c r="E14">
-        <v>1.008013577235832</v>
+        <v>1.048833524387697</v>
       </c>
       <c r="F14">
-        <v>1.013129957512764</v>
+        <v>1.058418193532338</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04679734912738</v>
+        <v>1.036908642618065</v>
       </c>
       <c r="J14">
-        <v>1.021262374940313</v>
+        <v>1.047470328369768</v>
       </c>
       <c r="K14">
-        <v>1.022717144859669</v>
+        <v>1.052267361735945</v>
       </c>
       <c r="L14">
-        <v>1.022802707937307</v>
+        <v>1.052357363676016</v>
       </c>
       <c r="M14">
-        <v>1.027825088282676</v>
+        <v>1.061907762118369</v>
       </c>
       <c r="N14">
-        <v>1.02271268465316</v>
+        <v>1.048957856382579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9920789696514024</v>
+        <v>1.041045037472835</v>
       </c>
       <c r="D15">
-        <v>1.008416273364178</v>
+        <v>1.04883971160998</v>
       </c>
       <c r="E15">
-        <v>1.008498240745144</v>
+        <v>1.048929508539546</v>
       </c>
       <c r="F15">
-        <v>1.01366255878524</v>
+        <v>1.058524667943235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046962007227988</v>
+        <v>1.036926761996855</v>
       </c>
       <c r="J15">
-        <v>1.021631917807223</v>
+        <v>1.047540630965765</v>
       </c>
       <c r="K15">
-        <v>1.02311014189801</v>
+        <v>1.052344302611764</v>
       </c>
       <c r="L15">
-        <v>1.023190605487869</v>
+        <v>1.052433777143859</v>
       </c>
       <c r="M15">
-        <v>1.028260815535668</v>
+        <v>1.06199483456263</v>
       </c>
       <c r="N15">
-        <v>1.023082752313328</v>
+        <v>1.049028258816326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.995441871976249</v>
+        <v>1.041671675824702</v>
       </c>
       <c r="D16">
-        <v>1.011241456722236</v>
+        <v>1.049401582908141</v>
       </c>
       <c r="E16">
-        <v>1.011293708851967</v>
+        <v>1.04948831842497</v>
       </c>
       <c r="F16">
-        <v>1.016734616474406</v>
+        <v>1.059144598657004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047904826903312</v>
+        <v>1.037031416187587</v>
       </c>
       <c r="J16">
-        <v>1.023760142028243</v>
+        <v>1.047949574137475</v>
       </c>
       <c r="K16">
-        <v>1.025374576308539</v>
+        <v>1.052792004471134</v>
       </c>
       <c r="L16">
-        <v>1.025425914739988</v>
+        <v>1.052878439525892</v>
       </c>
       <c r="M16">
-        <v>1.03077234558776</v>
+        <v>1.062501607583633</v>
       </c>
       <c r="N16">
-        <v>1.025213998856853</v>
+        <v>1.049437782734247</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9975218682856913</v>
+        <v>1.042064726078323</v>
       </c>
       <c r="D17">
-        <v>1.012991220236727</v>
+        <v>1.049754125936118</v>
       </c>
       <c r="E17">
-        <v>1.013025347985689</v>
+        <v>1.049838968257977</v>
       </c>
       <c r="F17">
-        <v>1.018637679011895</v>
+        <v>1.059533643479043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04848275468532</v>
+        <v>1.03709635050688</v>
       </c>
       <c r="J17">
-        <v>1.025075611662631</v>
+        <v>1.048205874155976</v>
       </c>
       <c r="K17">
-        <v>1.026775237027216</v>
+        <v>1.053072723346479</v>
       </c>
       <c r="L17">
-        <v>1.026808786065411</v>
+        <v>1.05315727847276</v>
       </c>
       <c r="M17">
-        <v>1.03232662753704</v>
+        <v>1.06281946920007</v>
       </c>
       <c r="N17">
-        <v>1.026531336609008</v>
+        <v>1.049694446728172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9987247789228483</v>
+        <v>1.042293977087957</v>
       </c>
       <c r="D18">
-        <v>1.014003974787838</v>
+        <v>1.049959792641279</v>
       </c>
       <c r="E18">
-        <v>1.014027712136456</v>
+        <v>1.050043540473815</v>
       </c>
       <c r="F18">
-        <v>1.019739309188186</v>
+        <v>1.059760630859423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048815080300955</v>
+        <v>1.03713396864052</v>
       </c>
       <c r="J18">
-        <v>1.025836049290306</v>
+        <v>1.04835529040716</v>
       </c>
       <c r="K18">
-        <v>1.027585281680147</v>
+        <v>1.053236421088565</v>
       </c>
       <c r="L18">
-        <v>1.02760862375163</v>
+        <v>1.053319889290356</v>
       </c>
       <c r="M18">
-        <v>1.033225798509476</v>
+        <v>1.06300486371858</v>
       </c>
       <c r="N18">
-        <v>1.027292854145338</v>
+        <v>1.049844075167571</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9991332183268382</v>
+        <v>1.042372144296595</v>
       </c>
       <c r="D19">
-        <v>1.01434798609903</v>
+        <v>1.050029925467962</v>
       </c>
       <c r="E19">
-        <v>1.014368210926091</v>
+        <v>1.050113301766222</v>
       </c>
       <c r="F19">
-        <v>1.020113534906895</v>
+        <v>1.059838038540118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048927593718813</v>
+        <v>1.037146751850121</v>
       </c>
       <c r="J19">
-        <v>1.026094192670771</v>
+        <v>1.04840622403199</v>
       </c>
       <c r="K19">
-        <v>1.027860326220716</v>
+        <v>1.053292230841907</v>
       </c>
       <c r="L19">
-        <v>1.027880216353379</v>
+        <v>1.053375330059858</v>
       </c>
       <c r="M19">
-        <v>1.033531153277802</v>
+        <v>1.063068076945618</v>
       </c>
       <c r="N19">
-        <v>1.027551364119012</v>
+        <v>1.04989508112399</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.997299778050887</v>
+        <v>1.042022556388028</v>
       </c>
       <c r="D20">
-        <v>1.012804304268314</v>
+        <v>1.049716297849286</v>
       </c>
       <c r="E20">
-        <v>1.012840357747529</v>
+        <v>1.049801342281432</v>
       </c>
       <c r="F20">
-        <v>1.018434371932239</v>
+        <v>1.059491896013359</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048421243799513</v>
+        <v>1.03708941024293</v>
       </c>
       <c r="J20">
-        <v>1.024935187018831</v>
+        <v>1.048178383778282</v>
       </c>
       <c r="K20">
-        <v>1.026625680968003</v>
+        <v>1.053042609085851</v>
       </c>
       <c r="L20">
-        <v>1.02666112104804</v>
+        <v>1.053127364917072</v>
       </c>
       <c r="M20">
-        <v>1.032160639232529</v>
+        <v>1.062785366560003</v>
       </c>
       <c r="N20">
-        <v>1.026390712546107</v>
+        <v>1.049666917310988</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9912157124996195</v>
+        <v>1.040885912537765</v>
       </c>
       <c r="D21">
-        <v>1.007691803367686</v>
+        <v>1.048697069475532</v>
       </c>
       <c r="E21">
-        <v>1.007781478733182</v>
+        <v>1.048787652142764</v>
       </c>
       <c r="F21">
-        <v>1.012874903766002</v>
+        <v>1.058367308676799</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046718374234073</v>
+        <v>1.03689996835994</v>
       </c>
       <c r="J21">
-        <v>1.021085348282598</v>
+        <v>1.04743672351621</v>
       </c>
       <c r="K21">
-        <v>1.022528902897277</v>
+        <v>1.052230586315614</v>
       </c>
       <c r="L21">
-        <v>1.022616913187274</v>
+        <v>1.052320840859878</v>
       </c>
       <c r="M21">
-        <v>1.027616394683242</v>
+        <v>1.061866146193533</v>
       </c>
       <c r="N21">
-        <v>1.022535406597286</v>
+        <v>1.048924203806275</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9872908343582736</v>
+        <v>1.040171184719111</v>
       </c>
       <c r="D22">
-        <v>1.004401800836636</v>
+        <v>1.048056555281234</v>
       </c>
       <c r="E22">
-        <v>1.004526920916086</v>
+        <v>1.048150708257225</v>
       </c>
       <c r="F22">
-        <v>1.00929854671558</v>
+        <v>1.057660819383907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045602818077629</v>
+        <v>1.036778547761207</v>
       </c>
       <c r="J22">
-        <v>1.01859916107347</v>
+        <v>1.046969703042295</v>
       </c>
       <c r="K22">
-        <v>1.019886558646502</v>
+        <v>1.051719672301163</v>
       </c>
       <c r="L22">
-        <v>1.020009228898888</v>
+        <v>1.051813470650158</v>
       </c>
       <c r="M22">
-        <v>1.024688021092087</v>
+        <v>1.061288121836518</v>
       </c>
       <c r="N22">
-        <v>1.020045688717151</v>
+        <v>1.048456520109719</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9893812634492417</v>
+        <v>1.040550082428729</v>
       </c>
       <c r="D23">
-        <v>1.006153301034141</v>
+        <v>1.048396073816844</v>
       </c>
       <c r="E23">
-        <v>1.006259462191888</v>
+        <v>1.048488325739344</v>
       </c>
       <c r="F23">
-        <v>1.011202376938109</v>
+        <v>1.058035287147492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046198548520729</v>
+        <v>1.036843133981578</v>
       </c>
       <c r="J23">
-        <v>1.019923555547265</v>
+        <v>1.047217346446883</v>
       </c>
       <c r="K23">
-        <v>1.021293827162799</v>
+        <v>1.051990551672806</v>
       </c>
       <c r="L23">
-        <v>1.021397967022907</v>
+        <v>1.052082463180008</v>
       </c>
       <c r="M23">
-        <v>1.026247382904517</v>
+        <v>1.06159455025541</v>
       </c>
       <c r="N23">
-        <v>1.02137196398301</v>
+        <v>1.048704515196346</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974001628780267</v>
+        <v>1.042041611082233</v>
       </c>
       <c r="D24">
-        <v>1.012888787766198</v>
+        <v>1.049733390627402</v>
       </c>
       <c r="E24">
-        <v>1.012923970531747</v>
+        <v>1.049818343704398</v>
       </c>
       <c r="F24">
-        <v>1.018526263535166</v>
+        <v>1.059510759697994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048449052641199</v>
+        <v>1.037092547043436</v>
       </c>
       <c r="J24">
-        <v>1.024998660009565</v>
+        <v>1.048190805741397</v>
       </c>
       <c r="K24">
-        <v>1.026693280308862</v>
+        <v>1.053056216550125</v>
       </c>
       <c r="L24">
-        <v>1.026727865386217</v>
+        <v>1.053140881661745</v>
       </c>
       <c r="M24">
-        <v>1.032235665072006</v>
+        <v>1.062800776102259</v>
       </c>
       <c r="N24">
-        <v>1.026454275675768</v>
+        <v>1.049679356914715</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006303768438301</v>
+        <v>1.043772110145931</v>
       </c>
       <c r="D25">
-        <v>1.020398937316794</v>
+        <v>1.051286615456694</v>
       </c>
       <c r="E25">
-        <v>1.020358823145959</v>
+        <v>1.051363482204071</v>
       </c>
       <c r="F25">
-        <v>1.026698184238695</v>
+        <v>1.061225475512897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050874333492099</v>
+        <v>1.037371894944735</v>
       </c>
       <c r="J25">
-        <v>1.030620832170549</v>
+        <v>1.049317341238249</v>
       </c>
       <c r="K25">
-        <v>1.032688629076464</v>
+        <v>1.054291257073635</v>
       </c>
       <c r="L25">
-        <v>1.032649106426706</v>
+        <v>1.054367889972204</v>
       </c>
       <c r="M25">
-        <v>1.038895714956607</v>
+        <v>1.064200186636891</v>
       </c>
       <c r="N25">
-        <v>1.032084431966093</v>
+        <v>1.050807492221189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045152066849036</v>
+        <v>1.013112554880259</v>
       </c>
       <c r="D2">
-        <v>1.052526514471977</v>
+        <v>1.026165108384828</v>
       </c>
       <c r="E2">
-        <v>1.05259724043079</v>
+        <v>1.026070182185192</v>
       </c>
       <c r="F2">
-        <v>1.062595122994376</v>
+        <v>1.032977370097258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037586549292694</v>
+        <v>1.05266756154219</v>
       </c>
       <c r="J2">
-        <v>1.050213330853448</v>
+        <v>1.034908022121543</v>
       </c>
       <c r="K2">
-        <v>1.055275002408555</v>
+        <v>1.037271570355213</v>
       </c>
       <c r="L2">
-        <v>1.055345532738893</v>
+        <v>1.037177883610809</v>
       </c>
       <c r="M2">
-        <v>1.065316044784235</v>
+        <v>1.043995627816464</v>
       </c>
       <c r="N2">
-        <v>1.051704754244413</v>
+        <v>1.036377710218577</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046153867393417</v>
+        <v>1.017900569308339</v>
       </c>
       <c r="D3">
-        <v>1.053427385776767</v>
+        <v>1.030232241289128</v>
       </c>
       <c r="E3">
-        <v>1.053493831880952</v>
+        <v>1.030100357234362</v>
       </c>
       <c r="F3">
-        <v>1.063590751221138</v>
+        <v>1.037409370126521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037737667355049</v>
+        <v>1.053891763469716</v>
       </c>
       <c r="J3">
-        <v>1.050862418683493</v>
+        <v>1.037914862970034</v>
       </c>
       <c r="K3">
-        <v>1.055988511132466</v>
+        <v>1.040492373430266</v>
       </c>
       <c r="L3">
-        <v>1.056054786742762</v>
+        <v>1.0403620565311</v>
       </c>
       <c r="M3">
-        <v>1.066126065192735</v>
+        <v>1.047584961033777</v>
       </c>
       <c r="N3">
-        <v>1.052354763853628</v>
+        <v>1.03938882112595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046802018643817</v>
+        <v>1.020930875129598</v>
       </c>
       <c r="D4">
-        <v>1.054010579883392</v>
+        <v>1.0328116945682</v>
       </c>
       <c r="E4">
-        <v>1.054074339351981</v>
+        <v>1.03265715069662</v>
       </c>
       <c r="F4">
-        <v>1.064235513230369</v>
+        <v>1.040221679444174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037833253474823</v>
+        <v>1.054649096014924</v>
       </c>
       <c r="J4">
-        <v>1.051281733084722</v>
+        <v>1.039813909252652</v>
       </c>
       <c r="K4">
-        <v>1.056449834989849</v>
+        <v>1.042529605128301</v>
       </c>
       <c r="L4">
-        <v>1.056513439100409</v>
+        <v>1.04237678371643</v>
       </c>
       <c r="M4">
-        <v>1.066650109526314</v>
+        <v>1.04985774011811</v>
       </c>
       <c r="N4">
-        <v>1.052774673729403</v>
+        <v>1.041290564272113</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047074481523156</v>
+        <v>1.022189156603657</v>
       </c>
       <c r="D5">
-        <v>1.054255818328413</v>
+        <v>1.03388401850467</v>
       </c>
       <c r="E5">
-        <v>1.054318468131277</v>
+        <v>1.033720240467204</v>
       </c>
       <c r="F5">
-        <v>1.064506695604809</v>
+        <v>1.0413911617815</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037872911125407</v>
+        <v>1.054959313021265</v>
       </c>
       <c r="J5">
-        <v>1.051457847143459</v>
+        <v>1.040601462540612</v>
       </c>
       <c r="K5">
-        <v>1.05664368754388</v>
+        <v>1.043375202611436</v>
       </c>
       <c r="L5">
-        <v>1.056706188094144</v>
+        <v>1.043213200021692</v>
       </c>
       <c r="M5">
-        <v>1.066870394579837</v>
+        <v>1.050801698173163</v>
       </c>
       <c r="N5">
-        <v>1.052951037890303</v>
+        <v>1.042079235976076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047120228054956</v>
+        <v>1.022399525817679</v>
       </c>
       <c r="D6">
-        <v>1.054296998644443</v>
+        <v>1.034063370269358</v>
       </c>
       <c r="E6">
-        <v>1.054359463290202</v>
+        <v>1.033898058667681</v>
       </c>
       <c r="F6">
-        <v>1.064552235585521</v>
+        <v>1.041586784958201</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03787953890982</v>
+        <v>1.05501092567773</v>
       </c>
       <c r="J6">
-        <v>1.051487407727558</v>
+        <v>1.040733072259494</v>
       </c>
       <c r="K6">
-        <v>1.056676231055626</v>
+        <v>1.043516555729114</v>
       </c>
       <c r="L6">
-        <v>1.056738547459162</v>
+        <v>1.043353027786382</v>
       </c>
       <c r="M6">
-        <v>1.06690738002345</v>
+        <v>1.050959528528303</v>
       </c>
       <c r="N6">
-        <v>1.052980640453822</v>
+        <v>1.042211032595854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046805659385114</v>
+        <v>1.020947749123639</v>
       </c>
       <c r="D7">
-        <v>1.05401385652273</v>
+        <v>1.032826069916792</v>
       </c>
       <c r="E7">
-        <v>1.054077601086135</v>
+        <v>1.032671401520994</v>
       </c>
       <c r="F7">
-        <v>1.064239136294907</v>
+        <v>1.040237355860838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03783378545297</v>
+        <v>1.054653273019461</v>
       </c>
       <c r="J7">
-        <v>1.051284086981575</v>
+        <v>1.03982447459257</v>
       </c>
       <c r="K7">
-        <v>1.056452425604014</v>
+        <v>1.042540946231981</v>
       </c>
       <c r="L7">
-        <v>1.056516014891967</v>
+        <v>1.042388001050631</v>
       </c>
       <c r="M7">
-        <v>1.066653053078238</v>
+        <v>1.049870398083251</v>
       </c>
       <c r="N7">
-        <v>1.052777030969059</v>
+        <v>1.041301144616025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045490646388903</v>
+        <v>1.014745100943949</v>
       </c>
       <c r="D8">
-        <v>1.052830911599123</v>
+        <v>1.027550701418799</v>
       </c>
       <c r="E8">
-        <v>1.052900174029935</v>
+        <v>1.027443020260176</v>
       </c>
       <c r="F8">
-        <v>1.062931491116278</v>
+        <v>1.034486967207385</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037638074912416</v>
+        <v>1.053088597503191</v>
       </c>
       <c r="J8">
-        <v>1.050432835267461</v>
+        <v>1.035934057062578</v>
       </c>
       <c r="K8">
-        <v>1.055516210879794</v>
+        <v>1.038369977704207</v>
       </c>
       <c r="L8">
-        <v>1.055585286417432</v>
+        <v>1.038263659296364</v>
       </c>
       <c r="M8">
-        <v>1.065589813691777</v>
+        <v>1.045219206859023</v>
       </c>
       <c r="N8">
-        <v>1.051924570379871</v>
+        <v>1.037405202246904</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043172832748289</v>
+        <v>1.003267465291784</v>
       </c>
       <c r="D9">
-        <v>1.050748525152882</v>
+        <v>1.017834048691434</v>
       </c>
       <c r="E9">
-        <v>1.050828144601189</v>
+        <v>1.017819171867177</v>
       </c>
       <c r="F9">
-        <v>1.060631310371556</v>
+        <v>1.023906533106367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037276408979596</v>
+        <v>1.050056805156711</v>
       </c>
       <c r="J9">
-        <v>1.048927580454169</v>
+        <v>1.028705366219275</v>
       </c>
       <c r="K9">
-        <v>1.053863730217319</v>
+        <v>1.03064425882468</v>
       </c>
       <c r="L9">
-        <v>1.053943097872803</v>
+        <v>1.030629612684696</v>
       </c>
       <c r="M9">
-        <v>1.063715577137104</v>
+        <v>1.036623295553441</v>
       </c>
       <c r="N9">
-        <v>1.050417177932089</v>
+        <v>1.030166245833461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.041627256214592</v>
+        <v>0.9952053950088059</v>
       </c>
       <c r="D10">
-        <v>1.04936174681768</v>
+        <v>1.01104263840164</v>
       </c>
       <c r="E10">
-        <v>1.049448697607285</v>
+        <v>1.011096963599877</v>
       </c>
       <c r="F10">
-        <v>1.059100641543621</v>
+        <v>1.016518399202437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037024043230302</v>
+        <v>1.047838863873145</v>
       </c>
       <c r="J10">
-        <v>1.047920599066028</v>
+        <v>1.023610541328121</v>
       </c>
       <c r="K10">
-        <v>1.052760275028787</v>
+        <v>1.025215336427886</v>
       </c>
       <c r="L10">
-        <v>1.052846923833317</v>
+        <v>1.025268708402215</v>
       </c>
       <c r="M10">
-        <v>1.062465684991091</v>
+        <v>1.030595679071628</v>
       </c>
       <c r="N10">
-        <v>1.049408766514874</v>
+        <v>1.025064185706577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040957922959934</v>
+        <v>0.9916068423332357</v>
       </c>
       <c r="D11">
-        <v>1.048761618959317</v>
+        <v>1.008020012569314</v>
       </c>
       <c r="E11">
-        <v>1.048851845633078</v>
+        <v>1.008106191561634</v>
       </c>
       <c r="F11">
-        <v>1.058438516951805</v>
+        <v>1.0132317319381</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036912104430586</v>
+        <v>1.046828840418287</v>
       </c>
       <c r="J11">
-        <v>1.047483748933222</v>
+        <v>1.02133300350543</v>
       </c>
       <c r="K11">
-        <v>1.052282048969754</v>
+        <v>1.022792251659433</v>
       </c>
       <c r="L11">
-        <v>1.052371950119412</v>
+        <v>1.022876839152749</v>
       </c>
       <c r="M11">
-        <v>1.061924382910862</v>
+        <v>1.027908357934898</v>
       </c>
       <c r="N11">
-        <v>1.048971296004773</v>
+        <v>1.02278341351894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0407092898445</v>
+        <v>0.9902530583659762</v>
       </c>
       <c r="D12">
-        <v>1.048538759147472</v>
+        <v>1.00688427891986</v>
       </c>
       <c r="E12">
-        <v>1.048630217873804</v>
+        <v>1.006982587584281</v>
       </c>
       <c r="F12">
-        <v>1.058192675161426</v>
+        <v>1.011997006763128</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036870125900114</v>
+        <v>1.046445939438504</v>
       </c>
       <c r="J12">
-        <v>1.047321360705711</v>
+        <v>1.020475732378732</v>
       </c>
       <c r="K12">
-        <v>1.052104351707082</v>
+        <v>1.021880764909493</v>
       </c>
       <c r="L12">
-        <v>1.052195475880989</v>
+        <v>1.02197722386223</v>
       </c>
       <c r="M12">
-        <v>1.06172330635887</v>
+        <v>1.026897916680914</v>
       </c>
       <c r="N12">
-        <v>1.048808677167352</v>
+        <v>1.021924924968912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040762623072028</v>
+        <v>0.9905442404893872</v>
       </c>
       <c r="D13">
-        <v>1.048586560858335</v>
+        <v>1.007128497392558</v>
       </c>
       <c r="E13">
-        <v>1.048677754615181</v>
+        <v>1.00722419048997</v>
       </c>
       <c r="F13">
-        <v>1.058245404486812</v>
+        <v>1.012262501746986</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036879148505411</v>
+        <v>1.04652842759917</v>
       </c>
       <c r="J13">
-        <v>1.047356199071151</v>
+        <v>1.020660140366309</v>
       </c>
       <c r="K13">
-        <v>1.052142471204448</v>
+        <v>1.022076809603198</v>
       </c>
       <c r="L13">
-        <v>1.052233332358585</v>
+        <v>1.022170709371063</v>
       </c>
       <c r="M13">
-        <v>1.061766438531826</v>
+        <v>1.027115224813145</v>
       </c>
       <c r="N13">
-        <v>1.048843565007267</v>
+        <v>1.022109594836983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040937371131121</v>
+        <v>0.9914952931616084</v>
       </c>
       <c r="D14">
-        <v>1.04874319618313</v>
+        <v>1.007926401760057</v>
       </c>
       <c r="E14">
-        <v>1.048833524387697</v>
+        <v>1.008013577235831</v>
       </c>
       <c r="F14">
-        <v>1.058418193532338</v>
+        <v>1.013129957512763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036908642618065</v>
+        <v>1.046797349127379</v>
       </c>
       <c r="J14">
-        <v>1.047470328369768</v>
+        <v>1.021262374940312</v>
       </c>
       <c r="K14">
-        <v>1.052267361735945</v>
+        <v>1.022717144859668</v>
       </c>
       <c r="L14">
-        <v>1.052357363676016</v>
+        <v>1.022802707937306</v>
       </c>
       <c r="M14">
-        <v>1.061907762118369</v>
+        <v>1.027825088282674</v>
       </c>
       <c r="N14">
-        <v>1.048957856382579</v>
+        <v>1.022712684653158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041045037472835</v>
+        <v>0.9920789696514035</v>
       </c>
       <c r="D15">
-        <v>1.04883971160998</v>
+        <v>1.008416273364179</v>
       </c>
       <c r="E15">
-        <v>1.048929508539546</v>
+        <v>1.008498240745145</v>
       </c>
       <c r="F15">
-        <v>1.058524667943235</v>
+        <v>1.013662558785242</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036926761996855</v>
+        <v>1.046962007227988</v>
       </c>
       <c r="J15">
-        <v>1.047540630965765</v>
+        <v>1.021631917807224</v>
       </c>
       <c r="K15">
-        <v>1.052344302611764</v>
+        <v>1.023110141898012</v>
       </c>
       <c r="L15">
-        <v>1.052433777143859</v>
+        <v>1.02319060548787</v>
       </c>
       <c r="M15">
-        <v>1.06199483456263</v>
+        <v>1.02826081553567</v>
       </c>
       <c r="N15">
-        <v>1.049028258816326</v>
+        <v>1.023082752313329</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041671675824702</v>
+        <v>0.9954418719762483</v>
       </c>
       <c r="D16">
-        <v>1.049401582908141</v>
+        <v>1.011241456722235</v>
       </c>
       <c r="E16">
-        <v>1.04948831842497</v>
+        <v>1.011293708851966</v>
       </c>
       <c r="F16">
-        <v>1.059144598657004</v>
+        <v>1.016734616474406</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037031416187587</v>
+        <v>1.047904826903312</v>
       </c>
       <c r="J16">
-        <v>1.047949574137475</v>
+        <v>1.023760142028242</v>
       </c>
       <c r="K16">
-        <v>1.052792004471134</v>
+        <v>1.025374576308538</v>
       </c>
       <c r="L16">
-        <v>1.052878439525892</v>
+        <v>1.025425914739987</v>
       </c>
       <c r="M16">
-        <v>1.062501607583633</v>
+        <v>1.030772345587759</v>
       </c>
       <c r="N16">
-        <v>1.049437782734247</v>
+        <v>1.025213998856852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042064726078323</v>
+        <v>0.9975218682856912</v>
       </c>
       <c r="D17">
-        <v>1.049754125936118</v>
+        <v>1.012991220236726</v>
       </c>
       <c r="E17">
-        <v>1.049838968257977</v>
+        <v>1.013025347985689</v>
       </c>
       <c r="F17">
-        <v>1.059533643479043</v>
+        <v>1.018637679011896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03709635050688</v>
+        <v>1.04848275468532</v>
       </c>
       <c r="J17">
-        <v>1.048205874155976</v>
+        <v>1.025075611662631</v>
       </c>
       <c r="K17">
-        <v>1.053072723346479</v>
+        <v>1.026775237027216</v>
       </c>
       <c r="L17">
-        <v>1.05315727847276</v>
+        <v>1.026808786065411</v>
       </c>
       <c r="M17">
-        <v>1.06281946920007</v>
+        <v>1.03232662753704</v>
       </c>
       <c r="N17">
-        <v>1.049694446728172</v>
+        <v>1.026531336609008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042293977087957</v>
+        <v>0.9987247789228482</v>
       </c>
       <c r="D18">
-        <v>1.049959792641279</v>
+        <v>1.014003974787838</v>
       </c>
       <c r="E18">
-        <v>1.050043540473815</v>
+        <v>1.014027712136456</v>
       </c>
       <c r="F18">
-        <v>1.059760630859423</v>
+        <v>1.019739309188186</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03713396864052</v>
+        <v>1.048815080300955</v>
       </c>
       <c r="J18">
-        <v>1.04835529040716</v>
+        <v>1.025836049290306</v>
       </c>
       <c r="K18">
-        <v>1.053236421088565</v>
+        <v>1.027585281680147</v>
       </c>
       <c r="L18">
-        <v>1.053319889290356</v>
+        <v>1.02760862375163</v>
       </c>
       <c r="M18">
-        <v>1.06300486371858</v>
+        <v>1.033225798509475</v>
       </c>
       <c r="N18">
-        <v>1.049844075167571</v>
+        <v>1.027292854145338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042372144296595</v>
+        <v>0.9991332183268379</v>
       </c>
       <c r="D19">
-        <v>1.050029925467962</v>
+        <v>1.01434798609903</v>
       </c>
       <c r="E19">
-        <v>1.050113301766222</v>
+        <v>1.01436821092609</v>
       </c>
       <c r="F19">
-        <v>1.059838038540118</v>
+        <v>1.020113534906894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037146751850121</v>
+        <v>1.048927593718813</v>
       </c>
       <c r="J19">
-        <v>1.04840622403199</v>
+        <v>1.02609419267077</v>
       </c>
       <c r="K19">
-        <v>1.053292230841907</v>
+        <v>1.027860326220716</v>
       </c>
       <c r="L19">
-        <v>1.053375330059858</v>
+        <v>1.027880216353378</v>
       </c>
       <c r="M19">
-        <v>1.063068076945618</v>
+        <v>1.033531153277802</v>
       </c>
       <c r="N19">
-        <v>1.04989508112399</v>
+        <v>1.027551364119011</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042022556388028</v>
+        <v>0.9972997780508862</v>
       </c>
       <c r="D20">
-        <v>1.049716297849286</v>
+        <v>1.012804304268313</v>
       </c>
       <c r="E20">
-        <v>1.049801342281432</v>
+        <v>1.012840357747528</v>
       </c>
       <c r="F20">
-        <v>1.059491896013359</v>
+        <v>1.018434371932238</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03708941024293</v>
+        <v>1.048421243799513</v>
       </c>
       <c r="J20">
-        <v>1.048178383778282</v>
+        <v>1.024935187018831</v>
       </c>
       <c r="K20">
-        <v>1.053042609085851</v>
+        <v>1.026625680968002</v>
       </c>
       <c r="L20">
-        <v>1.053127364917072</v>
+        <v>1.02666112104804</v>
       </c>
       <c r="M20">
-        <v>1.062785366560003</v>
+        <v>1.032160639232528</v>
       </c>
       <c r="N20">
-        <v>1.049666917310988</v>
+        <v>1.026390712546107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040885912537765</v>
+        <v>0.9912157124996203</v>
       </c>
       <c r="D21">
-        <v>1.048697069475532</v>
+        <v>1.007691803367686</v>
       </c>
       <c r="E21">
-        <v>1.048787652142764</v>
+        <v>1.007781478733184</v>
       </c>
       <c r="F21">
-        <v>1.058367308676799</v>
+        <v>1.012874903766004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03689996835994</v>
+        <v>1.046718374234073</v>
       </c>
       <c r="J21">
-        <v>1.04743672351621</v>
+        <v>1.021085348282599</v>
       </c>
       <c r="K21">
-        <v>1.052230586315614</v>
+        <v>1.022528902897278</v>
       </c>
       <c r="L21">
-        <v>1.052320840859878</v>
+        <v>1.022616913187275</v>
       </c>
       <c r="M21">
-        <v>1.061866146193533</v>
+        <v>1.027616394683243</v>
       </c>
       <c r="N21">
-        <v>1.048924203806275</v>
+        <v>1.022535406597287</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040171184719111</v>
+        <v>0.987290834358273</v>
       </c>
       <c r="D22">
-        <v>1.048056555281234</v>
+        <v>1.004401800836636</v>
       </c>
       <c r="E22">
-        <v>1.048150708257225</v>
+        <v>1.004526920916085</v>
       </c>
       <c r="F22">
-        <v>1.057660819383907</v>
+        <v>1.009298546715579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036778547761207</v>
+        <v>1.045602818077629</v>
       </c>
       <c r="J22">
-        <v>1.046969703042295</v>
+        <v>1.018599161073469</v>
       </c>
       <c r="K22">
-        <v>1.051719672301163</v>
+        <v>1.019886558646502</v>
       </c>
       <c r="L22">
-        <v>1.051813470650158</v>
+        <v>1.020009228898888</v>
       </c>
       <c r="M22">
-        <v>1.061288121836518</v>
+        <v>1.024688021092086</v>
       </c>
       <c r="N22">
-        <v>1.048456520109719</v>
+        <v>1.02004568871715</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040550082428729</v>
+        <v>0.9893812634492413</v>
       </c>
       <c r="D23">
-        <v>1.048396073816844</v>
+        <v>1.006153301034141</v>
       </c>
       <c r="E23">
-        <v>1.048488325739344</v>
+        <v>1.006259462191887</v>
       </c>
       <c r="F23">
-        <v>1.058035287147492</v>
+        <v>1.011202376938109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036843133981578</v>
+        <v>1.046198548520729</v>
       </c>
       <c r="J23">
-        <v>1.047217346446883</v>
+        <v>1.019923555547265</v>
       </c>
       <c r="K23">
-        <v>1.051990551672806</v>
+        <v>1.021293827162799</v>
       </c>
       <c r="L23">
-        <v>1.052082463180008</v>
+        <v>1.021397967022907</v>
       </c>
       <c r="M23">
-        <v>1.06159455025541</v>
+        <v>1.026247382904517</v>
       </c>
       <c r="N23">
-        <v>1.048704515196346</v>
+        <v>1.021371963983009</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042041611082233</v>
+        <v>0.9974001628780262</v>
       </c>
       <c r="D24">
-        <v>1.049733390627402</v>
+        <v>1.012888787766198</v>
       </c>
       <c r="E24">
-        <v>1.049818343704398</v>
+        <v>1.012923970531747</v>
       </c>
       <c r="F24">
-        <v>1.059510759697994</v>
+        <v>1.018526263535165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037092547043436</v>
+        <v>1.048449052641199</v>
       </c>
       <c r="J24">
-        <v>1.048190805741397</v>
+        <v>1.024998660009565</v>
       </c>
       <c r="K24">
-        <v>1.053056216550125</v>
+        <v>1.026693280308862</v>
       </c>
       <c r="L24">
-        <v>1.053140881661745</v>
+        <v>1.026727865386218</v>
       </c>
       <c r="M24">
-        <v>1.062800776102259</v>
+        <v>1.032235665072005</v>
       </c>
       <c r="N24">
-        <v>1.049679356914715</v>
+        <v>1.026454275675768</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043772110145931</v>
+        <v>1.0063037684383</v>
       </c>
       <c r="D25">
-        <v>1.051286615456694</v>
+        <v>1.020398937316794</v>
       </c>
       <c r="E25">
-        <v>1.051363482204071</v>
+        <v>1.020358823145958</v>
       </c>
       <c r="F25">
-        <v>1.061225475512897</v>
+        <v>1.026698184238694</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037371894944735</v>
+        <v>1.050874333492098</v>
       </c>
       <c r="J25">
-        <v>1.049317341238249</v>
+        <v>1.030620832170549</v>
       </c>
       <c r="K25">
-        <v>1.054291257073635</v>
+        <v>1.032688629076464</v>
       </c>
       <c r="L25">
-        <v>1.054367889972204</v>
+        <v>1.032649106426706</v>
       </c>
       <c r="M25">
-        <v>1.064200186636891</v>
+        <v>1.038895714956606</v>
       </c>
       <c r="N25">
-        <v>1.050807492221189</v>
+        <v>1.032084431966093</v>
       </c>
     </row>
   </sheetData>
